--- a/data-raw/acorsi.grayleafspot.xlsx
+++ b/data-raw/acorsi.grayleafspot.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7F52A4-F3CF-4086-AE85-C673A06DA63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="6468"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,14 +204,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +252,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -315,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,17 +497,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>36</v>
       </c>
@@ -527,7 +536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +568,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -591,7 +600,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -623,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -687,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -719,7 +728,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -751,7 +760,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -783,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -815,7 +824,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -847,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -911,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -943,7 +952,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -975,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1685,24 +1694,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
